--- a/feature_extraction_neuropathy.xlsx
+++ b/feature_extraction_neuropathy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MATLAB\digital signal processing\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Electromyography Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE045D-DE68-481C-A839-E8DBBDD76A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE5BEF8-7AEB-4015-AB3D-3328B84CE09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4790" yWindow="1950" windowWidth="14400" windowHeight="7360" xr2:uid="{DA764FF7-3172-40B2-B39B-53F22A57CF72}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{ACD662F6-039A-43C4-B71A-715CBB1203B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -370,16 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8BC316-4C7E-4EE9-A2BD-8D44F28498B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AF1652-07AC-468F-9B4E-1D607993CEAF}">
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.46127232056284823</v>
       </c>
@@ -393,7 +393,7 @@
         <v>230.28109999999958</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.21635263834359997</v>
       </c>
@@ -407,7 +407,7 @@
         <v>71.438900000000231</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.20689258978372049</v>
       </c>
@@ -421,7 +421,7 @@
         <v>66.844800000000191</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.23472900601017552</v>
       </c>
@@ -435,7 +435,7 @@
         <v>87.517300000000375</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.24578432610709708</v>
       </c>
@@ -449,7 +449,7 @@
         <v>95.314900000000108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.21902140439044385</v>
       </c>
@@ -463,7 +463,7 @@
         <v>78.744500000000187</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.25061579350053709</v>
       </c>
@@ -477,7 +477,7 @@
         <v>86.356000000000037</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.20283033308170684</v>
       </c>
@@ -491,7 +491,7 @@
         <v>83.993300000000104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.23963495551318803</v>
       </c>
@@ -505,7 +505,7 @@
         <v>89.97300000000017</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.24667055337799759</v>
       </c>
@@ -519,7 +519,7 @@
         <v>81.06580000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.22806722064836185</v>
       </c>
@@ -533,7 +533,7 @@
         <v>84.500000000000057</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.19613218378694008</v>
       </c>
@@ -547,7 +547,7 @@
         <v>74.587300000000013</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.23844571480279445</v>
       </c>
@@ -561,7 +561,7 @@
         <v>84.769700000000185</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.21291127243492708</v>
       </c>
@@ -575,7 +575,7 @@
         <v>73.957500000000223</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.23640935015705969</v>
       </c>
@@ -589,7 +589,7 @@
         <v>93.046200000000042</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.23751561452731607</v>
       </c>
@@ -603,7 +603,7 @@
         <v>89.114100000000306</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.21363623794742473</v>
       </c>
@@ -617,7 +617,7 @@
         <v>71.65060000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.23713730164117855</v>
       </c>
@@ -631,7 +631,7 @@
         <v>90.308700000000286</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.26316621082319464</v>
       </c>
@@ -645,7 +645,7 @@
         <v>100.38590000000013</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.19020640689642637</v>
       </c>
@@ -659,7 +659,7 @@
         <v>71.000500000000301</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.2266050221909576</v>
       </c>
@@ -673,7 +673,7 @@
         <v>82.438900000000103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.23894508225671718</v>
       </c>
@@ -687,7 +687,7 @@
         <v>92.801500000000431</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.21341864413712949</v>
       </c>
@@ -701,7 +701,7 @@
         <v>77.942100000000437</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.24981447127842749</v>
       </c>
@@ -715,7 +715,7 @@
         <v>88.411800000000127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.19445022056185268</v>
       </c>
@@ -729,7 +729,7 @@
         <v>73.876800000000131</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.23390684544213183</v>
       </c>
@@ -743,7 +743,7 @@
         <v>86.954400000000135</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.25184697669286943</v>
       </c>
@@ -757,7 +757,7 @@
         <v>94.83769999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.19698285183699546</v>
       </c>
@@ -771,7 +771,7 @@
         <v>71.489300000000213</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.24180395962386467</v>
       </c>
@@ -785,7 +785,7 @@
         <v>87.096000000000373</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.24524347470170857</v>
       </c>
@@ -799,7 +799,7 @@
         <v>90.10900000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.19287989742235809</v>
       </c>
@@ -813,7 +813,7 @@
         <v>70.265200000000235</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.23992787869263524</v>
       </c>
@@ -827,7 +827,7 @@
         <v>90.645000000000152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.19290258651913264</v>
       </c>
@@ -841,7 +841,7 @@
         <v>70.424700000000243</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.21491247663928337</v>
       </c>
@@ -855,7 +855,7 @@
         <v>79.64270000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.1943655138287958</v>
       </c>
@@ -869,7 +869,7 @@
         <v>74.15420000000033</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.23582645824167747</v>
       </c>
@@ -883,7 +883,7 @@
         <v>86.083900000000355</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.22183467162070536</v>
       </c>
@@ -897,7 +897,7 @@
         <v>92.328900000000147</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.20062905134223452</v>
       </c>
@@ -911,7 +911,7 @@
         <v>75.722100000000097</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.21817471650914974</v>
       </c>
@@ -925,7 +925,7 @@
         <v>83.974900000000233</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.23565168253369617</v>
       </c>
@@ -939,7 +939,7 @@
         <v>90.82090000000035</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.21838282807766368</v>
       </c>
@@ -953,7 +953,7 @@
         <v>91.344400000000249</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.22961776600893469</v>
       </c>
@@ -967,7 +967,7 @@
         <v>81.424900000000193</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.24239160550819749</v>
       </c>
@@ -981,7 +981,7 @@
         <v>88.362200000000243</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.19022412582554321</v>
       </c>
@@ -995,7 +995,7 @@
         <v>72.494900000000101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.22979328968001642</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>93.953300000000212</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.2646018441770272</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>104.61869999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.59510425808927936</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>329.36039999999946</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.37579734244027119</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>232.15079999999955</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.84684162561115006</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>425.83990000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.6429830638250746</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>1214.2338000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.66882569745573817</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>392.75429999999989</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.75725441424648821</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>388.90740000000011</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.60198686030507331</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>323.24540000000025</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.64070192844428375</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>346.88370000000037</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.65839390229646111</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>384.05459999999948</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.62091612198515367</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>362.47800000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.53134291898463282</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>289.44979999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.56986009770109669</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>287.56669999999968</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.60299172539246648</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>342.92970000000025</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.44450778239218114</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>231.98109999999977</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.6096112853519503</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>339.84109999999981</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.54909346787493829</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>289.53249999999986</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.4635186826853871</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>263.66980000000012</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.6362603990905783</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>362.79399999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.54884297091558598</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>320.00769999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.56191575872171429</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>296.68700000000018</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.49196604638082803</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>267.78129999999931</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.58233044333132822</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>306.84619999999973</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.46591187119824179</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>213.78059999999988</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.49190899136076272</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>257.45149999999956</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.45261994964609681</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>233.81900000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.43518735894413313</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>196.55209999999957</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.46535389135409289</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>231.07089999999926</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.51871841752859227</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>233.8266999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.3687878923433871</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>101.82099999999973</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.23570603773014553</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>111.68890000000032</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.24771870523609574</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>83.347100000000196</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.19863163542896764</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>79.234600000000327</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.23865316874053802</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>85.404000000000096</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.2553670399055844</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>91.981000000000336</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.22040061465858882</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>82.446200000000047</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.23516461534981256</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>91.447600000000207</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.19884622765973958</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>70.628300000000038</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.25779509738253137</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>94.1567000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.22008065173143485</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>77.549599999999984</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.22353897265262074</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>83.917700000000295</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.20678864821372611</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>69.148200000000188</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.25184409279184661</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>97.522399999999962</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.22812704101812942</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>82.04190000000014</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.20469950479795762</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>77.885300000000271</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.2536613194793404</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>91.913899999999984</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.20697156209254944</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>82.98840000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.25281829048945809</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>88.213300000000231</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.22125808919465081</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>81.544900000000069</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.24613032505936291</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>94.70760000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.19427077917505414</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>76.358100000000164</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.24437191265238889</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>86.543900000000164</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.21316316865947055</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>74.596800000000144</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.23538699399900537</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>88.477699999999786</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.23640928861507732</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>92.477800000000272</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.20995393501827783</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>68.408199999999979</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.2434634795853037</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>91.634800000000212</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.19458830346578226</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>68.879900000000063</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.25002250101145695</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>96.530900000000187</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.2215373024860271</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>81.03380000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.2066989970240336</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>72.17820000000016</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.22375822318942762</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>85.448000000000221</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.1832188589653399</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>65.250600000000105</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.23534034012761748</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>96.794000000000224</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.20708410782923675</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>75.707600000000198</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.2088993363211834</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>76.340700000000353</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.23282754407621348</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>88.581700000000154</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.19112461924137433</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>74.046600000000026</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.23596554289741078</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>96.570400000000106</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.2367329389179661</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>89.772000000000133</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.23998902024817587</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>86.352200000000124</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.21135895812185682</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>84.374600000000299</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.22144762733727039</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>84.179500000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.22617526542790409</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>90.812500000000114</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.26454880330225883</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>109.56050000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.53996932436250933</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>263.69469999999984</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.33088884360710541</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>136.2884999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.98925358604100622</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>590.002800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.295506888196559</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>880.51429999999982</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.7180605520587009</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>431.82890000000026</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.69907773790707595</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>357.09550000000047</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.62386136571136896</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>331.78019999999935</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.6783926716688119</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>378.79240000000021</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.60332098288288782</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>342.15210000000047</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.65516602926418877</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>379.7435000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.53567942087960396</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>289.22969999999987</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.53224913466599921</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>260.68809999999957</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.57458448665501693</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>335.18520000000024</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.46926383972403557</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>244.67169999999993</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.61493868848136579</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>338.57990000000024</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.52730039880618562</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>285.18079999999981</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.52234929328792701</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>288.43290000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.57261528205461421</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>316.83360000000027</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.55274337746613111</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>318.68190000000044</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.56785485333746855</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>305.41589999999962</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.52450378153421107</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>271.93030000000039</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.55037330178036892</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>292.09869999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.47956319918653884</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>219.3788999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.4952373286145812</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>259.35589999999951</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.44894693537384034</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>218.85499999999965</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.42582771792205037</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>197.08999999999972</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.45759774194905489</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>236.67649999999927</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.51961505433289656</v>
       </c>
